--- a/fruits-3.xlsx
+++ b/fruits-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninasolovyeva3/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninasolovyeva3/Documents/MATLAB/fruits_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9C301-9FDD-B24F-96FE-139E39AA5A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCA2BA-31D7-D04B-A1F2-962CAFEC86F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="4380" windowWidth="21780" windowHeight="13420" activeTab="4" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
+    <workbookView xWindow="6820" yWindow="3980" windowWidth="21780" windowHeight="13420" activeTab="4" xr2:uid="{2DC4BD99-AB50-3C4C-932F-DF093436E8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
   <si>
     <t>Image Name</t>
   </si>
@@ -330,16 +330,34 @@
     <t>img_53</t>
   </si>
   <si>
-    <t>flipped_52</t>
-  </si>
-  <si>
     <t>img_52</t>
   </si>
   <si>
-    <t>flipped_53</t>
-  </si>
-  <si>
-    <t>flipped_54</t>
+    <t>flippedimg_25</t>
+  </si>
+  <si>
+    <t>flippedimg_9</t>
+  </si>
+  <si>
+    <t>flippedimg_53</t>
+  </si>
+  <si>
+    <t>flippedimg_54</t>
+  </si>
+  <si>
+    <t>flippedimg_6</t>
+  </si>
+  <si>
+    <t>flippedimg_13</t>
+  </si>
+  <si>
+    <t>flippedimg_18</t>
+  </si>
+  <si>
+    <t>flippedimg_21</t>
+  </si>
+  <si>
+    <t>flippedimg_52</t>
   </si>
 </sst>
 </file>
@@ -819,26 +837,26 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>C2*$V$2+D2*$V$7+E2*$V$5+F2*$V$4+G2*$V$6+H2*$V$3</f>
+        <f t="shared" ref="O2:O21" si="0">C2*$V$2+D2*$V$7+E2*$V$5+F2*$V$4+G2*$V$6+H2*$V$3</f>
         <v>37</v>
       </c>
       <c r="P2">
-        <f>I2*$V$2+J2*$V$7+K2*$V$5+L2*$V$4+M2*$V$6+N2*$V$3</f>
+        <f t="shared" ref="P2:P21" si="1">I2*$V$2+J2*$V$7+K2*$V$5+L2*$V$4+M2*$V$6+N2*$V$3</f>
         <v>48</v>
       </c>
       <c r="Q2">
-        <f>ABS(O2-P2)</f>
+        <f t="shared" ref="Q2:Q21" si="2">ABS(O2-P2)</f>
         <v>11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <f>IF(O2&gt;P2,1,0)</f>
+        <f t="shared" ref="S2:S21" si="3">IF(O2&gt;P2,1,0)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>IF(S2=R2,1,0)</f>
+        <f t="shared" ref="T2:T21" si="4">IF(S2=R2,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2" t="s">
@@ -892,26 +910,26 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>C3*$V$2+D3*$V$7+E3*$V$5+F3*$V$4+G3*$V$6+H3*$V$3</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="P3">
-        <f>I3*$V$2+J3*$V$7+K3*$V$5+L3*$V$4+M3*$V$6+N3*$V$3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q3">
-        <f>ABS(O3-P3)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <f>IF(O3&gt;P3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>IF(S3=R3,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U3" t="s">
@@ -965,26 +983,26 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f>C4*$V$2+D4*$V$7+E4*$V$5+F4*$V$4+G4*$V$6+H4*$V$3</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="P4">
-        <f>I4*$V$2+J4*$V$7+K4*$V$5+L4*$V$4+M4*$V$6+N4*$V$3</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q4">
-        <f>ABS(O4-P4)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <f>IF(O4&gt;P4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T4">
-        <f>IF(S4=R4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U4" t="s">
@@ -1038,26 +1056,26 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>C5*$V$2+D5*$V$7+E5*$V$5+F5*$V$4+G5*$V$6+H5*$V$3</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P5">
-        <f>I5*$V$2+J5*$V$7+K5*$V$5+L5*$V$4+M5*$V$6+N5*$V$3</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="Q5">
-        <f>ABS(O5-P5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <f>IF(O5&gt;P5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T5">
-        <f>IF(S5=R5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U5" t="s">
@@ -1111,26 +1129,26 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>C6*$V$2+D6*$V$7+E6*$V$5+F6*$V$4+G6*$V$6+H6*$V$3</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="P6">
-        <f>I6*$V$2+J6*$V$7+K6*$V$5+L6*$V$4+M6*$V$6+N6*$V$3</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q6">
-        <f>ABS(O6-P6)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <f>IF(O6&gt;P6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>IF(S6=R6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U6" t="s">
@@ -1184,26 +1202,26 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>C7*$V$2+D7*$V$7+E7*$V$5+F7*$V$4+G7*$V$6+H7*$V$3</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="P7">
-        <f>I7*$V$2+J7*$V$7+K7*$V$5+L7*$V$4+M7*$V$6+N7*$V$3</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q7">
-        <f>ABS(O7-P7)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IF(O7&gt;P7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IF(S7=R7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U7" t="s">
@@ -1257,26 +1275,26 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>C8*$V$2+D8*$V$7+E8*$V$5+F8*$V$4+G8*$V$6+H8*$V$3</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="P8">
-        <f>I8*$V$2+J8*$V$7+K8*$V$5+L8*$V$4+M8*$V$6+N8*$V$3</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="Q8">
-        <f>ABS(O8-P8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IF(O8&gt;P8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>IF(S8=R8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1324,26 +1342,26 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f>C9*$V$2+D9*$V$7+E9*$V$5+F9*$V$4+G9*$V$6+H9*$V$3</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="P9">
-        <f>I9*$V$2+J9*$V$7+K9*$V$5+L9*$V$4+M9*$V$6+N9*$V$3</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="Q9">
-        <f>ABS(O9-P9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <f>IF(O9&gt;P9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>IF(S9=R9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1391,26 +1409,26 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>C10*$V$2+D10*$V$7+E10*$V$5+F10*$V$4+G10*$V$6+H10*$V$3</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="P10">
-        <f>I10*$V$2+J10*$V$7+K10*$V$5+L10*$V$4+M10*$V$6+N10*$V$3</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="Q10">
-        <f>ABS(O10-P10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IF(O10&gt;P10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>IF(S10=R10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1458,26 +1476,26 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>C11*$V$2+D11*$V$7+E11*$V$5+F11*$V$4+G11*$V$6+H11*$V$3</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="P11">
-        <f>I11*$V$2+J11*$V$7+K11*$V$5+L11*$V$4+M11*$V$6+N11*$V$3</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="Q11">
-        <f>ABS(O11-P11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <f>IF(O11&gt;P11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T11">
-        <f>IF(S11=R11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1525,26 +1543,26 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>C12*$V$2+D12*$V$7+E12*$V$5+F12*$V$4+G12*$V$6+H12*$V$3</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P12">
-        <f>I12*$V$2+J12*$V$7+K12*$V$5+L12*$V$4+M12*$V$6+N12*$V$3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q12">
-        <f>ABS(O12-P12)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <f>IF(O12&gt;P12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>IF(S12=R12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1592,26 +1610,26 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>C13*$V$2+D13*$V$7+E13*$V$5+F13*$V$4+G13*$V$6+H13*$V$3</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P13">
-        <f>I13*$V$2+J13*$V$7+K13*$V$5+L13*$V$4+M13*$V$6+N13*$V$3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q13">
-        <f>ABS(O13-P13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IF(O13&gt;P13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T13">
-        <f>IF(S13=R13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1659,26 +1677,26 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>C14*$V$2+D14*$V$7+E14*$V$5+F14*$V$4+G14*$V$6+H14*$V$3</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="P14">
-        <f>I14*$V$2+J14*$V$7+K14*$V$5+L14*$V$4+M14*$V$6+N14*$V$3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q14">
-        <f>ABS(O14-P14)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <f>IF(O14&gt;P14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T14">
-        <f>IF(S14=R14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1726,26 +1744,26 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>C15*$V$2+D15*$V$7+E15*$V$5+F15*$V$4+G15*$V$6+H15*$V$3</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="P15">
-        <f>I15*$V$2+J15*$V$7+K15*$V$5+L15*$V$4+M15*$V$6+N15*$V$3</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="Q15">
-        <f>ABS(O15-P15)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
-        <f>IF(O15&gt;P15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T15">
-        <f>IF(S15=R15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1793,26 +1811,26 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>C16*$V$2+D16*$V$7+E16*$V$5+F16*$V$4+G16*$V$6+H16*$V$3</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="P16">
-        <f>I16*$V$2+J16*$V$7+K16*$V$5+L16*$V$4+M16*$V$6+N16*$V$3</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="Q16">
-        <f>ABS(O16-P16)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <f>IF(O16&gt;P16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T16">
-        <f>IF(S16=R16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1860,26 +1878,26 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>C17*$V$2+D17*$V$7+E17*$V$5+F17*$V$4+G17*$V$6+H17*$V$3</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="P17">
-        <f>I17*$V$2+J17*$V$7+K17*$V$5+L17*$V$4+M17*$V$6+N17*$V$3</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="Q17">
-        <f>ABS(O17-P17)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <f>IF(O17&gt;P17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T17">
-        <f>IF(S17=R17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1927,26 +1945,26 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f>C18*$V$2+D18*$V$7+E18*$V$5+F18*$V$4+G18*$V$6+H18*$V$3</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="P18">
-        <f>I18*$V$2+J18*$V$7+K18*$V$5+L18*$V$4+M18*$V$6+N18*$V$3</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="Q18">
-        <f>ABS(O18-P18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <f>IF(O18&gt;P18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>IF(S18=R18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1994,26 +2012,26 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f>C19*$V$2+D19*$V$7+E19*$V$5+F19*$V$4+G19*$V$6+H19*$V$3</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="P19">
-        <f>I19*$V$2+J19*$V$7+K19*$V$5+L19*$V$4+M19*$V$6+N19*$V$3</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q19">
-        <f>ABS(O19-P19)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <f>IF(O19&gt;P19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T19">
-        <f>IF(S19=R19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2061,26 +2079,26 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>C20*$V$2+D20*$V$7+E20*$V$5+F20*$V$4+G20*$V$6+H20*$V$3</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="P20">
-        <f>I20*$V$2+J20*$V$7+K20*$V$5+L20*$V$4+M20*$V$6+N20*$V$3</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="Q20">
-        <f>ABS(O20-P20)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <f>IF(O20&gt;P20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>IF(S20=R20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2128,26 +2146,26 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <f>C21*$V$2+D21*$V$7+E21*$V$5+F21*$V$4+G21*$V$6+H21*$V$3</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="P21">
-        <f>I21*$V$2+J21*$V$7+K21*$V$5+L21*$V$4+M21*$V$6+N21*$V$3</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q21">
-        <f>ABS(O21-P21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <f>IF(O21&gt;P21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>IF(S21=R21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2224,26 +2242,26 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <f>C2*$O$2+D2*$O$3</f>
+        <f t="shared" ref="G2:G31" si="0">C2*$O$2+D2*$O$3</f>
         <v>11.6</v>
       </c>
       <c r="H2">
-        <f>E2*$O$2+F2*$O$3</f>
+        <f t="shared" ref="H2:H31" si="1">E2*$O$2+F2*$O$3</f>
         <v>10.8</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
+        <f t="shared" ref="I2:I31" si="2">G2-H2</f>
         <v>0.79999999999999893</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <f>IF(G2&gt;H2,1,0)</f>
+        <f t="shared" ref="K2:K31" si="3">IF(G2&gt;H2,1,0)</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f>IF(K2=J2,1,0)</f>
+        <f t="shared" ref="L2:L31" si="4">IF(K2=J2,1,0)</f>
         <v>1</v>
       </c>
       <c r="N2" t="s">
@@ -2273,26 +2291,26 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f>C3*$O$2+D3*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H3">
-        <f>E3*$O$2+F3*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="I3">
-        <f>G3-H3</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IF(G3&gt;H3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>IF(K3=J3,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -2322,26 +2340,26 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f>C4*$O$2+D4*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H4">
-        <f>E4*$O$2+F4*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I4">
-        <f>G4-H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IF(G4&gt;H4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF(K4=J4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2365,26 +2383,26 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f>C5*$O$2+D5*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H5">
-        <f>E5*$O$2+F5*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I5">
-        <f>G5-H5</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <f>IF(G5&gt;H5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(K5=J5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2408,26 +2426,26 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>C6*$O$2+D6*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H6">
-        <f>E6*$O$2+F6*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="I6">
-        <f>G6-H6</f>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IF(G6&gt;H6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IF(K6=J6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2451,26 +2469,26 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>C7*$O$2+D7*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H7">
-        <f>E7*$O$2+F7*$O$3</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I7">
-        <f>G7-H7</f>
+        <f t="shared" si="2"/>
         <v>-1.1999999999999993</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IF(G7&gt;H7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF(K7=J7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2494,26 +2512,26 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>C8*$O$2+D8*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H8">
-        <f>E8*$O$2+F8*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="I8">
-        <f>G8-H8</f>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IF(G8&gt;H8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF(K8=J8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2537,26 +2555,26 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f>C9*$O$2+D9*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H9">
-        <f>E9*$O$2+F9*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I9">
-        <f>G9-H9</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <f>IF(G9&gt;H9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>IF(K9=J9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2580,26 +2598,26 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>C10*$O$2+D10*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H10">
-        <f>E10*$O$2+F10*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
       <c r="I10">
-        <f>G10-H10</f>
+        <f t="shared" si="2"/>
         <v>-0.39999999999999858</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF(G10&gt;H10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF(K10=J10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2623,26 +2641,26 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>C11*$O$2+D11*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.4</v>
       </c>
       <c r="H11">
-        <f>E11*$O$2+F11*$O$3</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I11">
-        <f>G11-H11</f>
+        <f t="shared" si="2"/>
         <v>-1.5999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IF(G11&gt;H11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF(K11=J11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2666,26 +2684,26 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <f>C12*$O$2+D12*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H12">
-        <f>E12*$O$2+F12*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I12">
-        <f>G12-H12</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <f>IF(G12&gt;H12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f>IF(K12=J12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2709,26 +2727,26 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f>C13*$O$2+D13*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.6</v>
       </c>
       <c r="H13">
-        <f>E13*$O$2+F13*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I13">
-        <f>G13-H13</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <f>IF(G13&gt;H13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f>IF(K13=J13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2752,26 +2770,26 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <f>C14*$O$2+D14*$O$3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H14">
-        <f>E14*$O$2+F14*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I14">
-        <f>G14-H14</f>
+        <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <f>IF(G14&gt;H14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f>IF(K14=J14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2795,26 +2813,26 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <f>C15*$O$2+D15*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.6</v>
       </c>
       <c r="H15">
-        <f>E15*$O$2+F15*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I15">
-        <f>G15-H15</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <f>IF(G15&gt;H15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IF(K15=J15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2838,26 +2856,26 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <f>C16*$O$2+D16*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H16">
-        <f>E16*$O$2+F16*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I16">
-        <f>G16-H16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <f>IF(G16&gt;H16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IF(K16=J16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2881,26 +2899,26 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>C17*$O$2+D17*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H17">
-        <f>E17*$O$2+F17*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="I17">
-        <f>G17-H17</f>
+        <f t="shared" si="2"/>
         <v>-0.79999999999999893</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF(G17&gt;H17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF(K17=J17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2924,26 +2942,26 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>C18*$O$2+D18*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H18">
-        <f>E18*$O$2+F18*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="I18">
-        <f>G18-H18</f>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IF(G18&gt;H18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF(K18=J18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2967,26 +2985,26 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>C19*$O$2+D19*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H19">
-        <f>E19*$O$2+F19*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="I19">
-        <f>G19-H19</f>
+        <f t="shared" si="2"/>
         <v>-0.79999999999999893</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <f>IF(G19&gt;H19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>IF(K19=J19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3010,26 +3028,26 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>C20*$O$2+D20*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H20">
-        <f>E20*$O$2+F20*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
       <c r="I20">
-        <f>G20-H20</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000011</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <f>IF(G20&gt;H20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>IF(K20=J20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3053,26 +3071,26 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <f>C21*$O$2+D21*$O$3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H21">
-        <f>E21*$O$2+F21*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="I21">
-        <f>G21-H21</f>
+        <f t="shared" si="2"/>
         <v>-1.4000000000000004</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <f>IF(G21&gt;H21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>IF(K21=J21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3096,26 +3114,26 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <f>C22*$O$2+D22*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H22">
-        <f>E22*$O$2+F22*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="I22">
-        <f>G22-H22</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <f>IF(G22&gt;H22,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>IF(K22=J22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R22">
@@ -3151,26 +3169,26 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <f>C23*$O$2+D23*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H23">
-        <f>E23*$O$2+F23*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I23">
-        <f>G23-H23</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999858</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <f>IF(G23&gt;H23,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L23">
-        <f>IF(K23=J23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3194,26 +3212,26 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <f>C24*$O$2+D24*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H24">
-        <f>E24*$O$2+F24*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
       <c r="I24">
-        <f>G24-H24</f>
+        <f t="shared" si="2"/>
         <v>-0.39999999999999858</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <f>IF(G24&gt;H24,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>IF(K24=J24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3237,26 +3255,26 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>C25*$O$2+D25*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="H25">
-        <f>E25*$O$2+F25*$O$3</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I25">
-        <f>G25-H25</f>
+        <f t="shared" si="2"/>
         <v>-3.8000000000000007</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IF(G25&gt;H25,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>IF(K25=J25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3280,26 +3298,26 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>C26*$O$2+D26*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H26">
-        <f>E26*$O$2+F26*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
       <c r="I26">
-        <f>G26-H26</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000011</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <f>IF(G26&gt;H26,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L26">
-        <f>IF(K26=J26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3323,26 +3341,26 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <f>C27*$O$2+D27*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="H27">
-        <f>E27*$O$2+F27*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I27">
-        <f>G27-H27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <f>IF(G27&gt;H27,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>IF(K27=J27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3366,26 +3384,26 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <f>C28*$O$2+D28*$O$3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H28">
-        <f>E28*$O$2+F28*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I28">
-        <f>G28-H28</f>
+        <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <f>IF(G28&gt;H28,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L28">
-        <f>IF(K28=J28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3409,26 +3427,26 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <f>C29*$O$2+D29*$O$3</f>
+        <f t="shared" si="0"/>
         <v>11.6</v>
       </c>
       <c r="H29">
-        <f>E29*$O$2+F29*$O$3</f>
+        <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
       <c r="I29">
-        <f>G29-H29</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <f>IF(G29&gt;H29,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f>IF(K29=J29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3452,26 +3470,26 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <f>C30*$O$2+D30*$O$3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H30">
-        <f>E30*$O$2+F30*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="I30">
-        <f>G30-H30</f>
+        <f t="shared" si="2"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <f>IF(G30&gt;H30,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>IF(K30=J30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3495,26 +3513,26 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <f>C31*$O$2+D31*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="H31">
-        <f>E31*$O$2+F31*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="I31">
-        <f>G31-H31</f>
+        <f t="shared" si="2"/>
         <v>-2.2000000000000011</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <f>IF(G31&gt;H31,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>IF(K31=J31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4516,26 +4534,26 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f>C2*$O$2+D2*$O$3</f>
+        <f t="shared" ref="G2:G42" si="0">C2*$O$2+D2*$O$3</f>
         <v>6.1000000000000005</v>
       </c>
       <c r="H2">
-        <f>E2*$O$2+F2*$O$3</f>
+        <f t="shared" ref="H2:H42" si="1">E2*$O$2+F2*$O$3</f>
         <v>10.100000000000001</v>
       </c>
       <c r="I2">
-        <f>ABS(G2-H2)</f>
+        <f t="shared" ref="I2:I42" si="2">ABS(G2-H2)</f>
         <v>4.0000000000000009</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF(G2&gt;H2,1,0)</f>
+        <f t="shared" ref="K2:K42" si="3">IF(G2&gt;H2,1,0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IF(K2=J2,1,0)</f>
+        <f t="shared" ref="L2:L42" si="4">IF(K2=J2,1,0)</f>
         <v>1</v>
       </c>
       <c r="N2" t="s">
@@ -4568,26 +4586,26 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f>C3*$O$2+D3*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H3">
-        <f>E3*$O$2+F3*$O$3</f>
+        <f t="shared" si="1"/>
         <v>10.100000000000001</v>
       </c>
       <c r="I3">
-        <f>ABS(G3-H3)</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <f>IF(G3&gt;H3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>IF(K3=J3,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -4620,26 +4638,26 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>C4*$O$2+D4*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.100000000000001</v>
       </c>
       <c r="H4">
-        <f>E4*$O$2+F4*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I4">
-        <f>ABS(G4-H4)</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <f>IF(G4&gt;H4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>IF(K4=J4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4663,26 +4681,26 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>C5*$O$2+D5*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.100000000000001</v>
       </c>
       <c r="H5">
-        <f>E5*$O$2+F5*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I5">
-        <f>ABS(G5-H5)</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <f>IF(G5&gt;H5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(K5=J5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4706,26 +4724,26 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>C6*$O$2+D6*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H6">
-        <f>E6*$O$2+F6*$O$3</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I6">
-        <f>ABS(G6-H6)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IF(G6&gt;H6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IF(K6=J6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4749,26 +4767,26 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f>C7*$O$2+D7*$O$3</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="H7">
-        <f>E7*$O$2+F7*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I7">
-        <f>ABS(G7-H7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <f>IF(G7&gt;H7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF(K7=J7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4792,26 +4810,26 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <f>C8*$O$2+D8*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="H8">
-        <f>E8*$O$2+F8*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I8">
-        <f>ABS(G8-H8)</f>
+        <f t="shared" si="2"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <f>IF(G8&gt;H8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF(K8=J8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4835,26 +4853,26 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>C9*$O$2+D9*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H9">
-        <f>E9*$O$2+F9*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="I9">
-        <f>ABS(G9-H9)</f>
+        <f t="shared" si="2"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <f>IF(G9&gt;H9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>IF(K9=J9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4878,26 +4896,26 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>C10*$O$2+D10*$O$3</f>
+        <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="H10">
-        <f>E10*$O$2+F10*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I10">
-        <f>ABS(G10-H10)</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF(G10&gt;H10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF(K10=J10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4921,26 +4939,26 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <f>C11*$O$2+D11*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H11">
-        <f>E11*$O$2+F11*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="I11">
-        <f>ABS(G11-H11)</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <f>IF(G11&gt;H11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF(K11=J11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,26 +4982,26 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>C12*$O$2+D12*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H12">
-        <f>E12*$O$2+F12*$O$3</f>
+        <f t="shared" si="1"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="I12">
-        <f>ABS(G12-H12)</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <f>IF(G12&gt;H12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f>IF(K12=J12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5007,26 +5025,26 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>C13*$O$2+D13*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H13">
-        <f>E13*$O$2+F13*$O$3</f>
+        <f t="shared" si="1"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="I13">
-        <f>ABS(G13-H13)</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <f>IF(G13&gt;H13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f>IF(K13=J13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5050,26 +5068,26 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f>C14*$O$2+D14*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="H14">
-        <f>E14*$O$2+F14*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I14">
-        <f>ABS(G14-H14)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <f>IF(G14&gt;H14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IF(K14=J14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5093,26 +5111,26 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f>C15*$O$2+D15*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H15">
-        <f>E15*$O$2+F15*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
       <c r="I15">
-        <f>ABS(G15-H15)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IF(G15&gt;H15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IF(K15=J15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5136,26 +5154,26 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>C16*$O$2+D16*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H16">
-        <f>E16*$O$2+F16*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
       <c r="I16">
-        <f>ABS(G16-H16)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <f>IF(G16&gt;H16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>IF(K16=J16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5179,26 +5197,26 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <f>C17*$O$2+D17*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="H17">
-        <f>E17*$O$2+F17*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I17">
-        <f>ABS(G17-H17)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <f>IF(G17&gt;H17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF(K17=J17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5222,26 +5240,26 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <f>C18*$O$2+D18*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="H18">
-        <f>E18*$O$2+F18*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I18">
-        <f>ABS(G18-H18)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <f>IF(G18&gt;H18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF(K18=J18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5265,26 +5283,26 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>C19*$O$2+D19*$O$3</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="H19">
-        <f>E19*$O$2+F19*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I19">
-        <f>ABS(G19-H19)</f>
+        <f t="shared" si="2"/>
         <v>1.2999999999999998</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <f>IF(G19&gt;H19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>IF(K19=J19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5308,26 +5326,26 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <f>C20*$O$2+D20*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H20">
-        <f>E20*$O$2+F20*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I20">
-        <f>ABS(G20-H20)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <f>IF(G20&gt;H20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>IF(K20=J20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,26 +5369,26 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <f>C21*$O$2+D21*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H21">
-        <f>E21*$O$2+F21*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I21">
-        <f>ABS(G21-H21)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <f>IF(G21&gt;H21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>IF(K21=J21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5394,26 +5412,26 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f>C22*$O$2+D22*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H22">
-        <f>E22*$O$2+F22*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I22">
-        <f>ABS(G22-H22)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <f>IF(G22&gt;H22,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>IF(K22=J22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5437,26 +5455,26 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <f>C23*$O$2+D23*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H23">
-        <f>E23*$O$2+F23*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I23">
-        <f>ABS(G23-H23)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <f>IF(G23&gt;H23,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>IF(K23=J23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5480,26 +5498,26 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f>C24*$O$2+D24*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H24">
-        <f>E24*$O$2+F24*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I24">
-        <f>ABS(G24-H24)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <f>IF(G24&gt;H24,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>IF(K24=J24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5523,26 +5541,26 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <f>C25*$O$2+D25*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H25">
-        <f>E25*$O$2+F25*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I25">
-        <f>ABS(G25-H25)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <f>IF(G25&gt;H25,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f>IF(K25=J25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5566,26 +5584,26 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>C26*$O$2+D26*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H26">
-        <f>E26*$O$2+F26*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I26">
-        <f>ABS(G26-H26)</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <f>IF(G26&gt;H26,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L26">
-        <f>IF(K26=J26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5609,26 +5627,26 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <f>C27*$O$2+D27*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H27">
-        <f>E27*$O$2+F27*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="I27">
-        <f>ABS(G27-H27)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <f>IF(G27&gt;H27,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>IF(K27=J27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,26 +5670,26 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <f>C28*$O$2+D28*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H28">
-        <f>E28*$O$2+F28*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I28">
-        <f>ABS(G28-H28)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <f>IF(G28&gt;H28,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L28">
-        <f>IF(K28=J28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5695,26 +5713,26 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f>C29*$O$2+D29*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H29">
-        <f>E29*$O$2+F29*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I29">
-        <f>ABS(G29-H29)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <f>IF(G29&gt;H29,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f>IF(K29=J29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5738,26 +5756,26 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <f>C30*$O$2+D30*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H30">
-        <f>E30*$O$2+F30*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="I30">
-        <f>ABS(G30-H30)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <f>IF(G30&gt;H30,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>IF(K30=J30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5781,26 +5799,26 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <f>C31*$O$2+D31*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H31">
-        <f>E31*$O$2+F31*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I31">
-        <f>ABS(G31-H31)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <f>IF(G31&gt;H31,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L31">
-        <f>IF(K31=J31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5824,26 +5842,26 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <f>C32*$O$2+D32*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H32">
-        <f>E32*$O$2+F32*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I32">
-        <f>ABS(G32-H32)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <f>IF(G32&gt;H32,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L32">
-        <f>IF(K32=J32,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5867,26 +5885,26 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <f>C33*$O$2+D33*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H33">
-        <f>E33*$O$2+F33*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I33">
-        <f>ABS(G33-H33)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <f>IF(G33&gt;H33,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L33">
-        <f>IF(K33=J33,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5910,26 +5928,26 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <f>C34*$O$2+D34*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
       <c r="H34">
-        <f>E34*$O$2+F34*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I34">
-        <f>ABS(G34-H34)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <f>IF(G34&gt;H34,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>IF(K34=J34,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5953,26 +5971,26 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f>C35*$O$2+D35*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H35">
-        <f>E35*$O$2+F35*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I35">
-        <f>ABS(G35-H35)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <f>IF(G35&gt;H35,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>IF(K35=J35,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5996,26 +6014,26 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f>C36*$O$2+D36*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H36">
-        <f>E36*$O$2+F36*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I36">
-        <f>ABS(G36-H36)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <f>IF(G36&gt;H36,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>IF(K36=J36,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6039,26 +6057,26 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <f>C37*$O$2+D37*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H37">
-        <f>E37*$O$2+F37*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="I37">
-        <f>ABS(G37-H37)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <f>IF(G37&gt;H37,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L37">
-        <f>IF(K37=J37,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6082,26 +6100,26 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <f>C38*$O$2+D38*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H38">
-        <f>E38*$O$2+F38*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I38">
-        <f>ABS(G38-H38)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <f>IF(G38&gt;H38,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>IF(K38=J38,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6125,26 +6143,26 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <f>C39*$O$2+D39*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
       <c r="H39">
-        <f>E39*$O$2+F39*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I39">
-        <f>ABS(G39-H39)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <f>IF(G39&gt;H39,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>IF(K39=J39,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,26 +6186,26 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f>C40*$O$2+D40*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
       <c r="H40">
-        <f>E40*$O$2+F40*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I40">
-        <f>ABS(G40-H40)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <f>IF(G40&gt;H40,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>IF(K40=J40,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6211,26 +6229,26 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <f>C41*$O$2+D41*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H41">
-        <f>E41*$O$2+F41*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I41">
-        <f>ABS(G41-H41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <f>IF(G41&gt;H41,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>IF(K41=J41,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6254,26 +6272,26 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <f>C42*$O$2+D42*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H42">
-        <f>E42*$O$2+F42*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I42">
-        <f>ABS(G42-H42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <f>IF(G42&gt;H42,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>IF(K42=J42,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6290,7 +6308,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6335,7 +6353,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6353,26 +6371,26 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f>C2*$O$2+D2*$O$3</f>
+        <f t="shared" ref="G2:G21" si="0">C2*$O$2+D2*$O$3</f>
         <v>6.1000000000000005</v>
       </c>
       <c r="H2">
-        <f>E2*$O$2+F2*$O$3</f>
+        <f t="shared" ref="H2:H21" si="1">E2*$O$2+F2*$O$3</f>
         <v>10.100000000000001</v>
       </c>
       <c r="I2">
-        <f>ABS(G2-H2)</f>
+        <f t="shared" ref="I2:I21" si="2">ABS(G2-H2)</f>
         <v>4.0000000000000009</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF(G2&gt;H2,1,0)</f>
+        <f t="shared" ref="K2:K21" si="3">IF(G2&gt;H2,1,0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IF(K2=J2,1,0)</f>
+        <f t="shared" ref="L2:L21" si="4">IF(K2=J2,1,0)</f>
         <v>1</v>
       </c>
       <c r="N2" t="s">
@@ -6402,26 +6420,26 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>C3*$O$2+D3*$O$3</f>
+        <f t="shared" si="0"/>
         <v>10.100000000000001</v>
       </c>
       <c r="H3">
-        <f>E3*$O$2+F3*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I3">
-        <f>ABS(G3-H3)</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IF(G3&gt;H3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>IF(K3=J3,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -6433,7 +6451,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -6451,26 +6469,26 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>C4*$O$2+D4*$O$3</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="H4">
-        <f>E4*$O$2+F4*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I4">
-        <f>ABS(G4-H4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <f>IF(G4&gt;H4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF(K4=J4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6494,26 +6512,26 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>C5*$O$2+D5*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H5">
-        <f>E5*$O$2+F5*$O$3</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I5">
-        <f>ABS(G5-H5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IF(G5&gt;H5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(K5=J5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6537,32 +6555,32 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>C6*$O$2+D6*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H6">
-        <f>E6*$O$2+F6*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
       <c r="I6">
-        <f>ABS(G6-H6)</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <f>IF(G6&gt;H6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IF(K6=J6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -6580,26 +6598,26 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>C7*$O$2+D7*$O$3</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="H7">
-        <f>E7*$O$2+F7*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="I7">
-        <f>ABS(G7-H7)</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IF(G7&gt;H7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF(K7=J7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6623,26 +6641,26 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f>C8*$O$2+D8*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="H8">
-        <f>E8*$O$2+F8*$O$3</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="I8">
-        <f>ABS(G8-H8)</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <f>IF(G8&gt;H8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>IF(K8=J8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6666,26 +6684,26 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <f>C9*$O$2+D9*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H9">
-        <f>E9*$O$2+F9*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I9">
-        <f>ABS(G9-H9)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <f>IF(G9&gt;H9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>IF(K9=J9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6709,26 +6727,26 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>C10*$O$2+D10*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H10">
-        <f>E10*$O$2+F10*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I10">
-        <f>ABS(G10-H10)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF(G10&gt;H10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L10">
-        <f>IF(K10=J10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6752,32 +6770,32 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>C11*$O$2+D11*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H11">
-        <f>E11*$O$2+F11*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I11">
-        <f>ABS(G11-H11)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <f>IF(G11&gt;H11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF(K11=J11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -6795,32 +6813,32 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>C12*$O$2+D12*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H12">
-        <f>E12*$O$2+F12*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
       <c r="I12">
-        <f>ABS(G12-H12)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IF(G12&gt;H12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IF(K12=J12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -6838,32 +6856,32 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f>C13*$O$2+D13*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H13">
-        <f>E13*$O$2+F13*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="I13">
-        <f>ABS(G13-H13)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IF(G13&gt;H13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f>IF(K13=J13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -6881,32 +6899,32 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <f>C14*$O$2+D14*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H14">
-        <f>E14*$O$2+F14*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I14">
-        <f>ABS(G14-H14)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IF(G14&gt;H14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f>IF(K14=J14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -6924,26 +6942,26 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f>C15*$O$2+D15*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="H15">
-        <f>E15*$O$2+F15*$O$3</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
       <c r="I15">
-        <f>ABS(G15-H15)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IF(G15&gt;H15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IF(K15=J15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6967,32 +6985,32 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <f>C16*$O$2+D16*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
       <c r="H16">
-        <f>E16*$O$2+F16*$O$3</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I16">
-        <f>ABS(G16-H16)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <f>IF(G16&gt;H16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IF(K16=J16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -7010,26 +7028,26 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <f>C17*$O$2+D17*$O$3</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="H17">
-        <f>E17*$O$2+F17*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="I17">
-        <f>ABS(G17-H17)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF(G17&gt;H17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f>IF(K17=J17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7053,26 +7071,26 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>C18*$O$2+D18*$O$3</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="H18">
-        <f>E18*$O$2+F18*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="I18">
-        <f>ABS(G18-H18)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <f>IF(G18&gt;H18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF(K18=J18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7096,32 +7114,32 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <f>C19*$O$2+D19*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="H19">
-        <f>E19*$O$2+F19*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I19">
-        <f>ABS(G19-H19)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <f>IF(G19&gt;H19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>IF(K19=J19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -7139,32 +7157,32 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <f>C20*$O$2+D20*$O$3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H20">
-        <f>E20*$O$2+F20*$O$3</f>
+        <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="I20">
-        <f>ABS(G20-H20)</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <f>IF(G20&gt;H20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>IF(K20=J20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -7182,26 +7200,26 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <f>C21*$O$2+D21*$O$3</f>
+        <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H21">
-        <f>E21*$O$2+F21*$O$3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I21">
-        <f>ABS(G21-H21)</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <f>IF(G21&gt;H21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>IF(K21=J21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
